--- a/server/src/public/excels/product.xlsx
+++ b/server/src/public/excels/product.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Danh sach doanh thu" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Danh sach" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -31,145 +31,43 @@
     <t>Số lượng đã bán</t>
   </si>
   <si>
-    <t>Tổng tiền</t>
-  </si>
-  <si>
-    <t>663a3a5fdafbb4e197dc62c5</t>
-  </si>
-  <si>
-    <t>Pin dự phòng Energizer Hỗ Trợ Sạc Không Dây 10000mAh</t>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>6619f467cc3a8a69c8cb4b61</t>
+  </si>
+  <si>
+    <t>iPhone 11 256GB Chính Hãng VN/A</t>
   </si>
   <si>
     <t>chiếc</t>
   </si>
   <si>
-    <t>90.000.000 ₫</t>
-  </si>
-  <si>
-    <t>6619f467cc3a8a69c8cb4b61</t>
-  </si>
-  <si>
-    <t>iPhone 12 256GB Chính Hãng VN/A</t>
-  </si>
-  <si>
-    <t>102.000.000 ₫</t>
-  </si>
-  <si>
-    <t>66195f7221f7bc734284509d</t>
-  </si>
-  <si>
-    <t>iPhone 14 Pro Max 512GB Chính hãng VN/A</t>
-  </si>
-  <si>
-    <t>204.000.000 ₫</t>
-  </si>
-  <si>
-    <t>663a3ac5dafbb4e197dc62d2</t>
+    <t/>
+  </si>
+  <si>
+    <t>663f99fe78cbef249f4d267c</t>
+  </si>
+  <si>
+    <t>iPhone 15 Pro Max 512GB Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>663f9b4378cbef249f4d26e0</t>
+  </si>
+  <si>
+    <t>Ốp Lưng iPhone 14 Plus Space Cao cấp</t>
+  </si>
+  <si>
+    <t>663f9bea78cbef249f4d2748</t>
   </si>
   <si>
     <t>Tai nghe Bluetooth AirPods Pro Gen2 Chính hãng</t>
   </si>
   <si>
-    <t>559.000.000 ₫</t>
-  </si>
-  <si>
-    <t>663a3b32dafbb4e197dc62f8</t>
-  </si>
-  <si>
-    <t>Tai nghe Bluetooth AirPods Pro Gen3 Chính hãng</t>
-  </si>
-  <si>
-    <t>661a2df57f80a236f2c6bee9</t>
-  </si>
-  <si>
-    <t>Xiaomi Redmi Note 12 4GB/128GB Chính hãng</t>
-  </si>
-  <si>
-    <t>598.500.000 ₫</t>
-  </si>
-  <si>
-    <t>661a2e4b7f80a236f2c6beed</t>
-  </si>
-  <si>
-    <t>Xiaomi Redmi Note 12 Pro 6GB/128GB Trắng</t>
-  </si>
-  <si>
-    <t>661a2e847f80a236f2c6bef1</t>
-  </si>
-  <si>
-    <t>Xiaomi Redmi Note 12 Pro 6GB/128GB</t>
-  </si>
-  <si>
-    <t>748.500.000 ₫</t>
-  </si>
-  <si>
-    <t>66379823df35d3c645d9d9aa</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Max 512GB Chính hãng VN/A</t>
-  </si>
-  <si>
-    <t>790.000.000 ₫</t>
-  </si>
-  <si>
-    <t>661a308e7f80a236f2c6befe</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A53 5G 8GB 128GB Chính Hãng</t>
-  </si>
-  <si>
-    <t>838.500.000 ₫</t>
-  </si>
-  <si>
-    <t>661a311c7f80a236f2c6bf03</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A55 5G 8GB 128GB Chính Hãng</t>
-  </si>
-  <si>
-    <t>661a2f5a7f80a236f2c6bef8</t>
-  </si>
-  <si>
-    <t>Xiaomi Redmi Note 13 Pro 8GB/256GB</t>
-  </si>
-  <si>
-    <t>853.500.000 ₫</t>
-  </si>
-  <si>
-    <t>661a37aa7f80a236f2c6bf10</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A54 5G 8GB/128GB Chính Hãng</t>
-  </si>
-  <si>
-    <t>1.185.000.000 ₫</t>
-  </si>
-  <si>
-    <t>6635072a04071b15b82d58a9</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy B88 5G 8GB/128GB Chính Hãng</t>
-  </si>
-  <si>
-    <t>663653b6951ed737859153b2</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy B98 5G 8GB/128GB Chính Hãng</t>
-  </si>
-  <si>
-    <t>661a31b37f80a236f2c6bf07</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Z Flip5 Chính hãng 256GB</t>
-  </si>
-  <si>
-    <t>2.820.000.000 ₫</t>
-  </si>
-  <si>
-    <t>661a36a57f80a236f2c6bf0c</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Z Fold5 Chính Hãng 512GB</t>
+    <t>663f9c6778cbef249f4d2761</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro Max 256GB Chính Hãng VN/A</t>
   </si>
 </sst>
 </file>
@@ -551,15 +449,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,10 +493,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -622,13 +516,13 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -636,22 +530,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="F4">
-        <v>102</v>
-      </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -659,22 +553,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,298 +576,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>1000</v>
-      </c>
-      <c r="F7">
-        <v>150</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
-      </c>
-      <c r="F8">
-        <v>150</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>1000</v>
-      </c>
-      <c r="F9">
-        <v>150</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>1000</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>1000</v>
-      </c>
-      <c r="F11">
-        <v>150</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
         <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>1000</v>
-      </c>
-      <c r="F12">
-        <v>150</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>1000</v>
-      </c>
-      <c r="F13">
-        <v>150</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>1000</v>
-      </c>
-      <c r="F14">
-        <v>150</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>1000</v>
-      </c>
-      <c r="F15">
-        <v>150</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>1000</v>
-      </c>
-      <c r="F16">
-        <v>150</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>1000</v>
-      </c>
-      <c r="F17">
-        <v>150</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>1000</v>
-      </c>
-      <c r="F18">
-        <v>150</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/public/excels/product.xlsx
+++ b/server/src/public/excels/product.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Danh sach" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Danh sach doanh thu" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -31,7 +31,46 @@
     <t>Số lượng đã bán</t>
   </si>
   <si>
-    <t>Ghi chú</t>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>663f99fe78cbef249f4d267c</t>
+  </si>
+  <si>
+    <t>iPhone 15 Pro Max 512GB Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>chiếc</t>
+  </si>
+  <si>
+    <t>3.550.000.000 ₫</t>
+  </si>
+  <si>
+    <t>66195f7221f7bc734284509d</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro Max 512GB Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>3.096.000.000 ₫</t>
+  </si>
+  <si>
+    <t>663f9c6778cbef249f4d2761</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro Max 256GB Chính Hãng VN/A</t>
+  </si>
+  <si>
+    <t>2.500.000.000 ₫</t>
+  </si>
+  <si>
+    <t>663f9bea78cbef249f4d2748</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth AirPods Pro Gen2 Chính hãng</t>
+  </si>
+  <si>
+    <t>200.000.000 ₫</t>
   </si>
   <si>
     <t>6619f467cc3a8a69c8cb4b61</t>
@@ -40,16 +79,7 @@
     <t>iPhone 11 256GB Chính Hãng VN/A</t>
   </si>
   <si>
-    <t>chiếc</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>663f99fe78cbef249f4d267c</t>
-  </si>
-  <si>
-    <t>iPhone 15 Pro Max 512GB Chính hãng VN/A</t>
+    <t>108.000.000 ₫</t>
   </si>
   <si>
     <t>663f9b4378cbef249f4d26e0</t>
@@ -58,16 +88,7 @@
     <t>Ốp Lưng iPhone 14 Plus Space Cao cấp</t>
   </si>
   <si>
-    <t>663f9bea78cbef249f4d2748</t>
-  </si>
-  <si>
-    <t>Tai nghe Bluetooth AirPods Pro Gen2 Chính hãng</t>
-  </si>
-  <si>
-    <t>663f9c6778cbef249f4d2761</t>
-  </si>
-  <si>
-    <t>iPhone 11 Pro Max 256GB Chính Hãng VN/A</t>
+    <t>10.000.000 ₫</t>
   </si>
 </sst>
 </file>
@@ -449,11 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="7" width="30" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -493,10 +518,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -516,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>73</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -530,22 +555,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -568,7 +593,7 @@
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -576,22 +601,45 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>300</v>
+        <v>992</v>
       </c>
       <c r="F6">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
+      <c r="G7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/public/excels/product.xlsx
+++ b/server/src/public/excels/product.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Danh sach doanh thu" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Danh sach" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -31,64 +31,16 @@
     <t>Số lượng đã bán</t>
   </si>
   <si>
-    <t>Tổng tiền</t>
-  </si>
-  <si>
-    <t>663f99fe78cbef249f4d267c</t>
-  </si>
-  <si>
-    <t>iPhone 15 Pro Max 512GB Chính hãng VN/A</t>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>chiếc</t>
   </si>
   <si>
-    <t>3.550.000.000 ₫</t>
-  </si>
-  <si>
-    <t>66195f7221f7bc734284509d</t>
-  </si>
-  <si>
-    <t>iPhone 14 Pro Max 512GB Chính hãng VN/A</t>
-  </si>
-  <si>
-    <t>3.096.000.000 ₫</t>
-  </si>
-  <si>
-    <t>663f9c6778cbef249f4d2761</t>
-  </si>
-  <si>
-    <t>iPhone 11 Pro Max 256GB Chính Hãng VN/A</t>
-  </si>
-  <si>
-    <t>2.500.000.000 ₫</t>
-  </si>
-  <si>
-    <t>663f9bea78cbef249f4d2748</t>
-  </si>
-  <si>
-    <t>Tai nghe Bluetooth AirPods Pro Gen2 Chính hãng</t>
-  </si>
-  <si>
-    <t>200.000.000 ₫</t>
-  </si>
-  <si>
-    <t>6619f467cc3a8a69c8cb4b61</t>
-  </si>
-  <si>
-    <t>iPhone 11 256GB Chính Hãng VN/A</t>
-  </si>
-  <si>
-    <t>108.000.000 ₫</t>
-  </si>
-  <si>
-    <t>663f9b4378cbef249f4d26e0</t>
-  </si>
-  <si>
-    <t>Ốp Lưng iPhone 14 Plus Space Cao cấp</t>
-  </si>
-  <si>
-    <t>10.000.000 ₫</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -470,15 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -512,134 +460,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>73</v>
-      </c>
-      <c r="F3">
-        <v>129</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>998</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>992</v>
-      </c>
-      <c r="F6">
-        <v>108</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>2000</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/public/excels/product.xlsx
+++ b/server/src/public/excels/product.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -34,22 +34,82 @@
     <t>Ghi chú</t>
   </si>
   <si>
+    <t>66195f7221f7bc734284509d</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro Max 512GB Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>chiếc</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>6619f467cc3a8a69c8cb4b61</t>
+  </si>
+  <si>
+    <t>iPhone 11 256GB Chính Hãng VN/A</t>
+  </si>
+  <si>
+    <t>661a2df57f80a236f2c6bee9</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 12 4GB/128GB Chính hãng</t>
+  </si>
+  <si>
+    <t>661a2e4b7f80a236f2c6beed</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 12 Pro 6GB/128GB Trắng</t>
+  </si>
+  <si>
+    <t>663f99fe78cbef249f4d267c</t>
+  </si>
+  <si>
+    <t>iPhone 15 Pro Max 512GB Chính hãng VN/A</t>
+  </si>
+  <si>
     <t>663f9a6978cbef249f4d2695</t>
   </si>
   <si>
     <t>Samsung Galaxy Z Fold5 Chính Hãng 512GB</t>
   </si>
   <si>
-    <t>chiếc</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>663f9ab678cbef249f4d26ae</t>
   </si>
   <si>
     <t>Samsung Galaxy Z Fold5 Chính Hãng 256GB</t>
+  </si>
+  <si>
+    <t>663f9afb78cbef249f4d26c7</t>
+  </si>
+  <si>
+    <t>Pin dự phòng Energizer Hỗ Trợ Sạc Không Dây 10000mAh</t>
+  </si>
+  <si>
+    <t>663f9b4378cbef249f4d26e0</t>
+  </si>
+  <si>
+    <t>Ốp Lưng iPhone 14 Plus Space Cao cấp</t>
+  </si>
+  <si>
+    <t>663f9b9b78cbef249f4d272f</t>
+  </si>
+  <si>
+    <t>Ốp lưng Xiaomi Redmi 9A</t>
+  </si>
+  <si>
+    <t>663f9bea78cbef249f4d2748</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth AirPods Pro Gen2 Chính hãng</t>
+  </si>
+  <si>
+    <t>663f9c6778cbef249f4d2761</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro Max 256GB Chính Hãng VN/A</t>
   </si>
 </sst>
 </file>
@@ -431,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -475,10 +535,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -498,12 +558,242 @@
         <v>9</v>
       </c>
       <c r="E3">
+        <v>988</v>
+      </c>
+      <c r="F3">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>999</v>
+      </c>
+      <c r="F4">
+        <v>151</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>999</v>
+      </c>
+      <c r="F5">
+        <v>151</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>1000</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>299</v>
+      </c>
+      <c r="F9">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>998</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
         <v>10</v>
       </c>
     </row>

--- a/server/src/public/excels/product.xlsx
+++ b/server/src/public/excels/product.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Danh sach" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Danh sach doanh thu" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -31,7 +31,19 @@
     <t>Số lượng đã bán</t>
   </si>
   <si>
-    <t>Ghi chú</t>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>663f99fe78cbef249f4d267c</t>
+  </si>
+  <si>
+    <t>iPhone 15 Pro Max 512GB Chính hãng VN/A</t>
+  </si>
+  <si>
+    <t>chiếc</t>
+  </si>
+  <si>
+    <t>3.550.000.000 ₫</t>
   </si>
   <si>
     <t>66195f7221f7bc734284509d</t>
@@ -40,16 +52,34 @@
     <t>iPhone 14 Pro Max 512GB Chính hãng VN/A</t>
   </si>
   <si>
-    <t>chiếc</t>
-  </si>
-  <si>
-    <t/>
+    <t>3.120.000.000 ₫</t>
+  </si>
+  <si>
+    <t>663f9c6778cbef249f4d2761</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro Max 256GB Chính Hãng VN/A</t>
+  </si>
+  <si>
+    <t>2.500.000.000 ₫</t>
   </si>
   <si>
     <t>6619f467cc3a8a69c8cb4b61</t>
   </si>
   <si>
-    <t>iPhone 11 256GB Chính Hãng VN/A</t>
+    <t>iPhone 11 128GB Chính Hãng VN/A</t>
+  </si>
+  <si>
+    <t>1.298.460.000 ₫</t>
+  </si>
+  <si>
+    <t>663f9a6978cbef249f4d2695</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Z Fold5 Chính Hãng 512GB</t>
+  </si>
+  <si>
+    <t>790.000.000 ₫</t>
   </si>
   <si>
     <t>661a2df57f80a236f2c6bee9</t>
@@ -58,22 +88,16 @@
     <t>Xiaomi Redmi Note 12 4GB/128GB Chính hãng</t>
   </si>
   <si>
+    <t>606.480.000 ₫</t>
+  </si>
+  <si>
     <t>661a2e4b7f80a236f2c6beed</t>
   </si>
   <si>
     <t>Xiaomi Redmi Note 12 Pro 6GB/128GB Trắng</t>
   </si>
   <si>
-    <t>663f99fe78cbef249f4d267c</t>
-  </si>
-  <si>
-    <t>iPhone 15 Pro Max 512GB Chính hãng VN/A</t>
-  </si>
-  <si>
-    <t>663f9a6978cbef249f4d2695</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Z Fold5 Chính Hãng 512GB</t>
+    <t>602.490.000 ₫</t>
   </si>
   <si>
     <t>663f9ab678cbef249f4d26ae</t>
@@ -82,34 +106,40 @@
     <t>Samsung Galaxy Z Fold5 Chính Hãng 256GB</t>
   </si>
   <si>
+    <t>200.000.000 ₫</t>
+  </si>
+  <si>
+    <t>663f9bea78cbef249f4d2748</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth AirPods Pro Gen2 Chính hãng</t>
+  </si>
+  <si>
     <t>663f9afb78cbef249f4d26c7</t>
   </si>
   <si>
     <t>Pin dự phòng Energizer Hỗ Trợ Sạc Không Dây 10000mAh</t>
   </si>
   <si>
+    <t>90.900.000 ₫</t>
+  </si>
+  <si>
     <t>663f9b4378cbef249f4d26e0</t>
   </si>
   <si>
     <t>Ốp Lưng iPhone 14 Plus Space Cao cấp</t>
   </si>
   <si>
+    <t>10.100.000 ₫</t>
+  </si>
+  <si>
     <t>663f9b9b78cbef249f4d272f</t>
   </si>
   <si>
     <t>Ốp lưng Xiaomi Redmi 9A</t>
   </si>
   <si>
-    <t>663f9bea78cbef249f4d2748</t>
-  </si>
-  <si>
-    <t>Tai nghe Bluetooth AirPods Pro Gen2 Chính hãng</t>
-  </si>
-  <si>
-    <t>663f9c6778cbef249f4d2761</t>
-  </si>
-  <si>
-    <t>iPhone 11 Pro Max 256GB Chính Hãng VN/A</t>
+    <t>5.000.000 ₫</t>
   </si>
 </sst>
 </file>
@@ -494,8 +524,12 @@
   <dimension ref="A1:G13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="7" width="30" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -535,10 +569,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>73</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -558,13 +592,13 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>988</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -572,22 +606,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>999</v>
+        <v>300</v>
       </c>
       <c r="F4">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -595,22 +629,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="F5">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,10 +652,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -633,7 +667,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,22 +675,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -664,22 +698,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -687,22 +721,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>299</v>
+        <v>1000</v>
       </c>
       <c r="F9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -710,22 +744,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>2000</v>
+        <v>998</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,22 +767,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>299</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -756,22 +790,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12">
-        <v>998</v>
+        <v>1999</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -779,22 +813,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
